--- a/data/sisor-dados/base_categoria_pessoal.xlsx
+++ b/data/sisor-dados/base_categoria_pessoal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E335"/>
+  <dimension ref="A1:E339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,11 +476,11 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DIREÇÃO SUPERIOR</t>
+          <t>ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>32</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="3">
@@ -522,11 +522,11 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>TÉCNICA</t>
+          <t>DIREÇÃO SUPERIOR</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>295</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -568,11 +568,11 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ADMINISTRATIVA</t>
+          <t>MEMBROS DE PODER</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2466</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
@@ -614,11 +614,11 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MEMBROS DE PODER</t>
+          <t>TÉCNICA</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>78</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9">
@@ -660,11 +660,11 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>429</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11">
@@ -683,11 +683,11 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>667</v>
+        <v>429</v>
       </c>
     </row>
     <row r="12">
@@ -729,11 +729,11 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>OUTRAS</t>
+          <t>MEMBROS DE PODER</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
@@ -752,11 +752,11 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>MEMBROS DE PODER</t>
+          <t>OUTRAS</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -775,11 +775,11 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ADMINISTRATIVA</t>
+          <t>ESPECIALIZADA</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>217</v>
+        <v>667</v>
       </c>
     </row>
     <row r="16">
@@ -821,11 +821,11 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>ESPECIALIZADA</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>3765</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="18">
@@ -844,11 +844,11 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>TÉCNICA</t>
+          <t>MEMBROS DE PODER</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>110</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="19">
@@ -862,16 +862,16 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Inativo</t>
+          <t>Ativo</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>INATIVO CIVIL</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6977</v>
+        <v>3765</v>
       </c>
     </row>
     <row r="20">
@@ -885,16 +885,16 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Ativo</t>
+          <t>Inativo</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ADMINISTRATIVA</t>
+          <t>INATIVO CIVIL</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>8557</v>
+        <v>6977</v>
       </c>
     </row>
     <row r="21">
@@ -913,11 +913,11 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>MEMBROS DE PODER</t>
+          <t>ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1132</v>
+        <v>8557</v>
       </c>
     </row>
     <row r="22">
@@ -936,11 +936,11 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA</t>
+          <t>TÉCNICA</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1161</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23">
@@ -959,11 +959,11 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>DIREÇÃO SUPERIOR</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>10</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24">
@@ -982,11 +982,11 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>DIREÇÃO SUPERIOR</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>77</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -1005,11 +1005,11 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>TÉCNICA</t>
+          <t>ESPECIALIZADA</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>73</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
@@ -1074,11 +1074,11 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>MEMBROS DE PODER</t>
+          <t>TÉCNICA</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>17</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29">
@@ -1120,11 +1120,11 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA</t>
+          <t>MEMBROS DE PODER</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31">
@@ -1212,11 +1212,11 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>DIREÇÃO SUPERIOR</t>
+          <t>ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>3</v>
+        <v>319</v>
       </c>
     </row>
     <row r="35">
@@ -1281,11 +1281,11 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>ADMINISTRATIVA</t>
+          <t>ESPECIALIZADA</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>319</v>
+        <v>434</v>
       </c>
     </row>
     <row r="38">
@@ -1304,11 +1304,11 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA</t>
+          <t>DIREÇÃO SUPERIOR</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>434</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -1327,11 +1327,11 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>DIREÇÃO SUPERIOR</t>
+          <t>ESPECIALIZADA</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>5</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="40">
@@ -1350,11 +1350,11 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>MEMBROS DE PODER</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>778</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="41">
@@ -1368,16 +1368,16 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Inativo</t>
+          <t>Ativo</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>INATIVO CIVIL</t>
+          <t>DIREÇÃO SUPERIOR</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>483</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
@@ -1391,16 +1391,16 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Ativo</t>
+          <t>Inativo</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA</t>
+          <t>INATIVO CIVIL</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1365</v>
+        <v>483</v>
       </c>
     </row>
     <row r="43">
@@ -1419,11 +1419,11 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>MEMBROS DE PODER</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1086</v>
+        <v>778</v>
       </c>
     </row>
     <row r="44">
@@ -1488,11 +1488,11 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>ESPECIALIZADA</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47">
@@ -1506,16 +1506,16 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Inativo</t>
+          <t>Ativo</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>INATIVO CIVIL</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48">
@@ -1529,16 +1529,16 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Ativo</t>
+          <t>Inativo</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA</t>
+          <t>INATIVO CIVIL</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -1603,11 +1603,11 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>DIREÇÃO SUPERIOR</t>
+          <t>ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>5</v>
+        <v>570</v>
       </c>
     </row>
     <row r="52">
@@ -1672,11 +1672,11 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>ADMINISTRATIVA</t>
+          <t>ESPECIALIZADA</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>570</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="55">
@@ -1695,11 +1695,11 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA</t>
+          <t>DIREÇÃO SUPERIOR</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1506</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56">
@@ -1718,11 +1718,11 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>DIREÇÃO SUPERIOR</t>
+          <t>ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>8</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57">
@@ -1764,11 +1764,11 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>ADMINISTRATIVA</t>
+          <t>DIREÇÃO SUPERIOR</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>133</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59">
@@ -1833,11 +1833,11 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>TÉCNICA</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>108</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62">
@@ -1851,16 +1851,16 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Inativo</t>
+          <t>Ativo</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>INATIVO CIVIL</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>481</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63">
@@ -1897,16 +1897,16 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Ativo</t>
+          <t>Inativo</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>TÉCNICA</t>
+          <t>INATIVO CIVIL</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>41</v>
+        <v>481</v>
       </c>
     </row>
     <row r="65">
@@ -1948,11 +1948,11 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>DOCENTE</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>237</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="67">
@@ -1971,11 +1971,11 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>NATUREZA ESPECIAL</t>
+          <t>ESPECIALIZADA</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>190</v>
       </c>
     </row>
     <row r="68">
@@ -1994,11 +1994,11 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA</t>
+          <t>NATUREZA ESPECIAL</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>190</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2040,11 +2040,11 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>ADMINISTRATIVA</t>
+          <t>PRAÇA</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1793</v>
+        <v>33828</v>
       </c>
     </row>
     <row r="71">
@@ -2063,11 +2063,11 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>OFICIAL</t>
+          <t>ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>3764</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="72">
@@ -2086,11 +2086,11 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>PRAÇA</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>33828</v>
+        <v>237</v>
       </c>
     </row>
     <row r="73">
@@ -2132,11 +2132,11 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>DOCENTE</t>
+          <t>OFICIAL</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>2339</v>
+        <v>3764</v>
       </c>
     </row>
     <row r="75">
@@ -2178,11 +2178,11 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>DOCENTE</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>4144</v>
+        <v>158968</v>
       </c>
     </row>
     <row r="77">
@@ -2201,11 +2201,11 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>TÉCNICA</t>
+          <t>ESPECIALIZADA</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>23323</v>
+        <v>14014</v>
       </c>
     </row>
     <row r="78">
@@ -2219,16 +2219,16 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Inativo</t>
+          <t>Ativo</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>INATIVO CIVIL</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>176055</v>
+        <v>4144</v>
       </c>
     </row>
     <row r="79">
@@ -2242,16 +2242,16 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Ativo</t>
+          <t>Inativo</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>DOCENTE</t>
+          <t>INATIVO CIVIL</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>158968</v>
+        <v>176055</v>
       </c>
     </row>
     <row r="80">
@@ -2293,11 +2293,11 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA</t>
+          <t>TÉCNICA</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>14014</v>
+        <v>23323</v>
       </c>
     </row>
     <row r="82">
@@ -2316,11 +2316,11 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>DIREÇÃO SUPERIOR</t>
+          <t>ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>4</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83">
@@ -2385,11 +2385,11 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>ADMINISTRATIVA</t>
+          <t>OUTRAS</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>80</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86">
@@ -2408,11 +2408,11 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>OUTRAS</t>
+          <t>TÉCNICA</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87">
@@ -2431,11 +2431,11 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>TÉCNICA</t>
+          <t>DIREÇÃO SUPERIOR</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88">
@@ -2477,11 +2477,11 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>ESPECIALIZADA</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>44</v>
+        <v>124</v>
       </c>
     </row>
     <row r="90">
@@ -2495,16 +2495,16 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Inativo</t>
+          <t>Ativo</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>INATIVO CIVIL</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
     <row r="91">
@@ -2541,16 +2541,16 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Ativo</t>
+          <t>Inativo</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA</t>
+          <t>INATIVO CIVIL</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>124</v>
+        <v>74</v>
       </c>
     </row>
     <row r="93">
@@ -2569,11 +2569,11 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>DIREÇÃO SUPERIOR</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>10</v>
+        <v>83</v>
       </c>
     </row>
     <row r="94">
@@ -2592,11 +2592,11 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>ESPECIALIZADA</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>83</v>
+        <v>333</v>
       </c>
     </row>
     <row r="95">
@@ -2610,16 +2610,16 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Inativo</t>
+          <t>Ativo</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>INATIVO CIVIL</t>
+          <t>DIREÇÃO SUPERIOR</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96">
@@ -2633,16 +2633,16 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Ativo</t>
+          <t>Inativo</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA</t>
+          <t>INATIVO CIVIL</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>333</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97">
@@ -2684,11 +2684,11 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>DIREÇÃO SUPERIOR</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99">
@@ -2707,11 +2707,11 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>DIREÇÃO SUPERIOR</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
@@ -2799,11 +2799,11 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>DIREÇÃO SUPERIOR</t>
+          <t>ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104">
@@ -2891,11 +2891,11 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>ADMINISTRATIVA</t>
+          <t>TÉCNICA</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>6</v>
+        <v>983</v>
       </c>
     </row>
     <row r="108">
@@ -2914,11 +2914,11 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>TÉCNICA</t>
+          <t>DIREÇÃO SUPERIOR</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>983</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109">
@@ -2937,11 +2937,11 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>DIREÇÃO SUPERIOR</t>
+          <t>ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>9</v>
+        <v>804</v>
       </c>
     </row>
     <row r="110">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>NATUREZA ESPECIAL</t>
+          <t>DIREÇÃO SUPERIOR</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="112">
@@ -3029,11 +3029,11 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA</t>
+          <t>NATUREZA ESPECIAL</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>1139</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114">
@@ -3052,11 +3052,11 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>ADMINISTRATIVA</t>
+          <t>TÉCNICA</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>804</v>
+        <v>17855</v>
       </c>
     </row>
     <row r="115">
@@ -3075,11 +3075,11 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>TÉCNICA</t>
+          <t>ESPECIALIZADA</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>17855</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="116">
@@ -3098,11 +3098,11 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>DIREÇÃO SUPERIOR</t>
+          <t>ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>11</v>
+        <v>142</v>
       </c>
     </row>
     <row r="117">
@@ -3144,11 +3144,11 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>TÉCNICA</t>
+          <t>DIREÇÃO SUPERIOR</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>142</v>
+        <v>11</v>
       </c>
     </row>
     <row r="119">
@@ -3190,11 +3190,11 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>DOCENTE</t>
+          <t>ESPECIALIZADA</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>2</v>
+        <v>147</v>
       </c>
     </row>
     <row r="121">
@@ -3213,7 +3213,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>ADMINISTRATIVA</t>
+          <t>TÉCNICA</t>
         </is>
       </c>
       <c r="E121" t="n">
@@ -3236,11 +3236,11 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA</t>
+          <t>DOCENTE</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>147</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123">
@@ -3259,11 +3259,11 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>DIREÇÃO SUPERIOR</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>5</v>
+        <v>262</v>
       </c>
     </row>
     <row r="124">
@@ -3282,11 +3282,11 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>DIREÇÃO SUPERIOR</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>262</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125">
@@ -3300,16 +3300,16 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Ativo</t>
+          <t>Inativo</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>TÉCNICA</t>
+          <t>INATIVO CIVIL</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>63</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="126">
@@ -3328,11 +3328,11 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA</t>
+          <t>TÉCNICA</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>46</v>
+        <v>63</v>
       </c>
     </row>
     <row r="127">
@@ -3341,7 +3341,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>1501 - SEPLAG</t>
+          <t>1491 - SEGOV</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -3351,11 +3351,11 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>ESPECIALIZADA</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>751</v>
+        <v>46</v>
       </c>
     </row>
     <row r="128">
@@ -3397,11 +3397,11 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>ADMINISTRATIVA</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>624</v>
+        <v>751</v>
       </c>
     </row>
     <row r="130">
@@ -3410,7 +3410,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>1511 - PCMG</t>
+          <t>1501 - SEPLAG</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -3420,11 +3420,11 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>OUTRAS</t>
+          <t>ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>10080</v>
+        <v>624</v>
       </c>
     </row>
     <row r="131">
@@ -3479,7 +3479,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>1521 - CGE</t>
+          <t>1511 - PCMG</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -3489,11 +3489,11 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>OUTRAS</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>43</v>
+        <v>10080</v>
       </c>
     </row>
     <row r="134">
@@ -3571,21 +3571,21 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>1541 - ESP MG</t>
+          <t>1521 - CGE</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Ativo</t>
+          <t>Inativo</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>DIREÇÃO SUPERIOR</t>
+          <t>INATIVO CIVIL</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="138">
@@ -3594,21 +3594,21 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>1541 - ESP MG</t>
+          <t>1521 - CGE</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Inativo</t>
+          <t>Ativo</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>INATIVO CIVIL</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="139">
@@ -3622,16 +3622,16 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Ativo</t>
+          <t>Inativo</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>ADMINISTRATIVA</t>
+          <t>INATIVO CIVIL</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="140">
@@ -3673,11 +3673,11 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>DIREÇÃO SUPERIOR</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -3686,7 +3686,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>1631 - SEC. GERAL</t>
+          <t>1541 - ESP MG</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -3696,11 +3696,11 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>ADMINISTRATIVA</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143">
@@ -3709,7 +3709,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>1631 - SEC. GERAL</t>
+          <t>1541 - ESP MG</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -3719,11 +3719,11 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>MEMBROS DE PODER</t>
+          <t>ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="144">
@@ -3742,11 +3742,11 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>MEMBROS DE PODER</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145">
@@ -3765,11 +3765,11 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>DIREÇÃO SUPERIOR</t>
+          <t>ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146">
@@ -3801,7 +3801,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>1711 - SECOM</t>
+          <t>1631 - SEC. GERAL</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -3815,7 +3815,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148">
@@ -3824,7 +3824,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>1711 - SECOM</t>
+          <t>1631 - SEC. GERAL</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -3834,11 +3834,11 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>OUTRAS</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="149">
@@ -3880,11 +3880,11 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA</t>
+          <t>DIREÇÃO SUPERIOR</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151">
@@ -3893,7 +3893,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>1721 - SCC</t>
+          <t>1711 - SECOM</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -3903,11 +3903,11 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>TÉCNICA</t>
+          <t>ESPECIALIZADA</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -3916,7 +3916,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>1721 - SCC</t>
+          <t>1711 - SECOM</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -3926,11 +3926,11 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>DIREÇÃO SUPERIOR</t>
+          <t>OUTRAS</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="153">
@@ -3949,11 +3949,11 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>DIREÇÃO SUPERIOR</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154">
@@ -3985,21 +3985,21 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>2011 - IPSEMG</t>
+          <t>1721 - SCC</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Inativo</t>
+          <t>Ativo</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>INATIVO CIVIL</t>
+          <t>TÉCNICA</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>3346</v>
+        <v>4</v>
       </c>
     </row>
     <row r="156">
@@ -4008,7 +4008,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2011 - IPSEMG</t>
+          <t>1721 - SCC</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -4018,11 +4018,11 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>TÉCNICA</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>603</v>
+        <v>36</v>
       </c>
     </row>
     <row r="157">
@@ -4036,16 +4036,16 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Ativo</t>
+          <t>Inativo</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>INATIVO CIVIL</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>75</v>
+        <v>3346</v>
       </c>
     </row>
     <row r="158">
@@ -4064,11 +4064,11 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>ADMINISTRATIVA</t>
+          <t>ESPECIALIZADA</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>807</v>
+        <v>916</v>
       </c>
     </row>
     <row r="159">
@@ -4087,11 +4087,11 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>DIREÇÃO SUPERIOR</t>
+          <t>TÉCNICA</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>2</v>
+        <v>603</v>
       </c>
     </row>
     <row r="160">
@@ -4110,11 +4110,11 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA</t>
+          <t>ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>916</v>
+        <v>807</v>
       </c>
     </row>
     <row r="161">
@@ -4123,21 +4123,21 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>2041 - LEMG</t>
+          <t>2011 - IPSEMG</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Inativo</t>
+          <t>Ativo</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>INATIVO CIVIL</t>
+          <t>DIREÇÃO SUPERIOR</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162">
@@ -4146,7 +4146,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2041 - LEMG</t>
+          <t>2011 - IPSEMG</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -4160,7 +4160,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>4</v>
+        <v>75</v>
       </c>
     </row>
     <row r="163">
@@ -4174,16 +4174,16 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Ativo</t>
+          <t>Inativo</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>DIREÇÃO SUPERIOR</t>
+          <t>INATIVO CIVIL</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="164">
@@ -4202,11 +4202,11 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>ADMINISTRATIVA</t>
+          <t>DIREÇÃO SUPERIOR</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="165">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>2061 - FJP</t>
+          <t>2041 - LEMG</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -4225,11 +4225,11 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>MEMBROS DE PODER</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="166">
@@ -4238,21 +4238,21 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>2061 - FJP</t>
+          <t>2041 - LEMG</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Inativo</t>
+          <t>Ativo</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>INATIVO CIVIL</t>
+          <t>ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>281</v>
+        <v>13</v>
       </c>
     </row>
     <row r="167">
@@ -4271,11 +4271,11 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>TÉCNICA</t>
+          <t>ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>43</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168">
@@ -4289,16 +4289,16 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Ativo</t>
+          <t>Inativo</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>INATIVO CIVIL</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>57</v>
+        <v>281</v>
       </c>
     </row>
     <row r="169">
@@ -4317,11 +4317,11 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>ADMINISTRATIVA</t>
+          <t>TÉCNICA</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>2</v>
+        <v>43</v>
       </c>
     </row>
     <row r="170">
@@ -4340,11 +4340,11 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>DIREÇÃO SUPERIOR</t>
+          <t>MEMBROS DE PODER</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -4376,21 +4376,21 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2071 - FAPEMIG</t>
+          <t>2061 - FJP</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Inativo</t>
+          <t>Ativo</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>INATIVO CIVIL</t>
+          <t>DIREÇÃO SUPERIOR</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173">
@@ -4399,7 +4399,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>2071 - FAPEMIG</t>
+          <t>2061 - FJP</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -4413,7 +4413,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>24</v>
+        <v>57</v>
       </c>
     </row>
     <row r="174">
@@ -4432,11 +4432,11 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>DIREÇÃO SUPERIOR</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="175">
@@ -4455,11 +4455,11 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>ADMINISTRATIVA</t>
+          <t>DIREÇÃO SUPERIOR</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>62</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176">
@@ -4468,7 +4468,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>2091 - FEAM</t>
+          <t>2071 - FAPEMIG</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>95</v>
+        <v>13</v>
       </c>
     </row>
     <row r="177">
@@ -4491,7 +4491,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>2091 - FEAM</t>
+          <t>2071 - FAPEMIG</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -4501,11 +4501,11 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA</t>
+          <t>ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>296</v>
+        <v>62</v>
       </c>
     </row>
     <row r="178">
@@ -4524,11 +4524,11 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>TÉCNICA</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="179">
@@ -4547,11 +4547,11 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>ESPECIALIZADA</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>78</v>
+        <v>296</v>
       </c>
     </row>
     <row r="180">
@@ -4570,11 +4570,11 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>DIREÇÃO SUPERIOR</t>
+          <t>TÉCNICA</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="181">
@@ -4583,7 +4583,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>2101 - IEF</t>
+          <t>2091 - FEAM</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -4597,7 +4597,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>391</v>
+        <v>95</v>
       </c>
     </row>
     <row r="182">
@@ -4606,7 +4606,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>2101 - IEF</t>
+          <t>2091 - FEAM</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -4616,11 +4616,11 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA</t>
+          <t>DIREÇÃO SUPERIOR</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>262</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -4634,16 +4634,16 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Ativo</t>
+          <t>Inativo</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>TÉCNICA</t>
+          <t>INATIVO CIVIL</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>266</v>
+        <v>391</v>
       </c>
     </row>
     <row r="184">
@@ -4662,11 +4662,11 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>TÉCNICA</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>217</v>
+        <v>266</v>
       </c>
     </row>
     <row r="185">
@@ -4685,11 +4685,11 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>DIREÇÃO SUPERIOR</t>
+          <t>ESPECIALIZADA</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>1</v>
+        <v>262</v>
       </c>
     </row>
     <row r="186">
@@ -4698,21 +4698,21 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>2121 - IPSM</t>
+          <t>2101 - IEF</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Inativo</t>
+          <t>Ativo</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>INATIVO CIVIL</t>
+          <t>DIREÇÃO SUPERIOR</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>2121 - IPSM</t>
+          <t>2101 - IEF</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -4731,11 +4731,11 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>36</v>
+        <v>217</v>
       </c>
     </row>
     <row r="188">
@@ -4754,11 +4754,11 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>DIREÇÃO SUPERIOR</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
     </row>
     <row r="189">
@@ -4772,16 +4772,16 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Ativo</t>
+          <t>Inativo</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>DIREÇÃO SUPERIOR</t>
+          <t>INATIVO CIVIL</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="190">
@@ -4813,21 +4813,21 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>2151 - FHA</t>
+          <t>2121 - IPSM</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Inativo</t>
+          <t>Ativo</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>INATIVO CIVIL</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="192">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>2151 - FHA</t>
+          <t>2121 - IPSM</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -4850,7 +4850,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="193">
@@ -4869,11 +4869,11 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>DOCENTE</t>
+          <t>TÉCNICA</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>332</v>
+        <v>22</v>
       </c>
     </row>
     <row r="194">
@@ -4892,11 +4892,11 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>TÉCNICA</t>
+          <t>ESPECIALIZADA</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="195">
@@ -4915,11 +4915,11 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>DIREÇÃO SUPERIOR</t>
+          <t>DOCENTE</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>4</v>
+        <v>332</v>
       </c>
     </row>
     <row r="196">
@@ -4938,11 +4938,11 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>DIREÇÃO SUPERIOR</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="197">
@@ -4961,11 +4961,11 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>ADMINISTRATIVA</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>205</v>
+        <v>22</v>
       </c>
     </row>
     <row r="198">
@@ -4974,21 +4974,21 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>2161 - FUCAM</t>
+          <t>2151 - FHA</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Inativo</t>
+          <t>Ativo</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>INATIVO CIVIL</t>
+          <t>ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>78</v>
+        <v>205</v>
       </c>
     </row>
     <row r="199">
@@ -4997,21 +4997,21 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>2161 - FUCAM</t>
+          <t>2151 - FHA</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Ativo</t>
+          <t>Inativo</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>INATIVO CIVIL</t>
         </is>
       </c>
       <c r="E199" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="200">
@@ -5030,11 +5030,11 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>DIREÇÃO SUPERIOR</t>
+          <t>ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="E200" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="201">
@@ -5048,16 +5048,16 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Ativo</t>
+          <t>Inativo</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>ADMINISTRATIVA</t>
+          <t>INATIVO CIVIL</t>
         </is>
       </c>
       <c r="E201" t="n">
-        <v>22</v>
+        <v>78</v>
       </c>
     </row>
     <row r="202">
@@ -5066,7 +5066,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>2171 - FAOP</t>
+          <t>2161 - FUCAM</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -5076,11 +5076,11 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>DOCENTE</t>
+          <t>DIREÇÃO SUPERIOR</t>
         </is>
       </c>
       <c r="E202" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203">
@@ -5089,7 +5089,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>2171 - FAOP</t>
+          <t>2161 - FUCAM</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -5103,7 +5103,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204">
@@ -5122,11 +5122,11 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>DIREÇÃO SUPERIOR</t>
+          <t>DOCENTE</t>
         </is>
       </c>
       <c r="E204" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="205">
@@ -5158,21 +5158,21 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>2181 - FCS</t>
+          <t>2171 - FAOP</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Inativo</t>
+          <t>Ativo</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>INATIVO CIVIL</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E206" t="n">
-        <v>136</v>
+        <v>20</v>
       </c>
     </row>
     <row r="207">
@@ -5181,7 +5181,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>2181 - FCS</t>
+          <t>2171 - FAOP</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -5191,11 +5191,11 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA</t>
+          <t>DIREÇÃO SUPERIOR</t>
         </is>
       </c>
       <c r="E207" t="n">
-        <v>102</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -5204,21 +5204,21 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>2181 - FCS</t>
+          <t>2171 - FAOP</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Ativo</t>
+          <t>Inativo</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>INATIVO CIVIL</t>
         </is>
       </c>
       <c r="E208" t="n">
-        <v>46</v>
+        <v>4</v>
       </c>
     </row>
     <row r="209">
@@ -5237,11 +5237,11 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>ADMINISTRATIVA</t>
+          <t>DIREÇÃO SUPERIOR</t>
         </is>
       </c>
       <c r="E209" t="n">
-        <v>55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -5260,11 +5260,11 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>DIREÇÃO SUPERIOR</t>
+          <t>DOCENTE</t>
         </is>
       </c>
       <c r="E210" t="n">
-        <v>1</v>
+        <v>78</v>
       </c>
     </row>
     <row r="211">
@@ -5283,11 +5283,11 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>DOCENTE</t>
+          <t>ESPECIALIZADA</t>
         </is>
       </c>
       <c r="E211" t="n">
-        <v>78</v>
+        <v>102</v>
       </c>
     </row>
     <row r="212">
@@ -5296,7 +5296,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>2201 - IEPHA</t>
+          <t>2181 - FCS</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -5310,7 +5310,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>65</v>
+        <v>136</v>
       </c>
     </row>
     <row r="213">
@@ -5319,7 +5319,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>2201 - IEPHA</t>
+          <t>2181 - FCS</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -5329,11 +5329,11 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>TÉCNICA</t>
+          <t>ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="E213" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
     </row>
     <row r="214">
@@ -5342,7 +5342,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>2201 - IEPHA</t>
+          <t>2181 - FCS</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -5356,7 +5356,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="215">
@@ -5375,7 +5375,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>ADMINISTRATIVA</t>
+          <t>DIREÇÃO SUPERIOR</t>
         </is>
       </c>
       <c r="E215" t="n">
@@ -5398,11 +5398,11 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>DIREÇÃO SUPERIOR</t>
+          <t>ESPECIALIZADA</t>
         </is>
       </c>
       <c r="E216" t="n">
-        <v>1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="217">
@@ -5421,11 +5421,11 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E217" t="n">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="218">
@@ -5434,21 +5434,21 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>2211 - TV MINAS</t>
+          <t>2201 - IEPHA</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Ativo</t>
+          <t>Inativo</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>TÉCNICA</t>
+          <t>INATIVO CIVIL</t>
         </is>
       </c>
       <c r="E218" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
     </row>
     <row r="219">
@@ -5457,7 +5457,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>2211 - TV MINAS</t>
+          <t>2201 - IEPHA</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -5467,11 +5467,11 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="E219" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
@@ -5480,7 +5480,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>2211 - TV MINAS</t>
+          <t>2201 - IEPHA</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -5490,11 +5490,11 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>ADMINISTRATIVA</t>
+          <t>TÉCNICA</t>
         </is>
       </c>
       <c r="E220" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="221">
@@ -5513,11 +5513,11 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA</t>
+          <t>ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="E221" t="n">
-        <v>65</v>
+        <v>5</v>
       </c>
     </row>
     <row r="222">
@@ -5526,21 +5526,21 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>2241 - IGAM</t>
+          <t>2211 - TV MINAS</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Inativo</t>
+          <t>Ativo</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>INATIVO CIVIL</t>
+          <t>TÉCNICA</t>
         </is>
       </c>
       <c r="E222" t="n">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="223">
@@ -5549,7 +5549,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>2241 - IGAM</t>
+          <t>2211 - TV MINAS</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -5559,11 +5559,11 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>TÉCNICA</t>
+          <t>ESPECIALIZADA</t>
         </is>
       </c>
       <c r="E223" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="224">
@@ -5572,7 +5572,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>2241 - IGAM</t>
+          <t>2211 - TV MINAS</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
     </row>
     <row r="225">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>2251 - JUCEMG</t>
+          <t>2241 - IGAM</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -5651,11 +5651,11 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>OUTRAS</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E227" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="228">
@@ -5664,7 +5664,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>2251 - JUCEMG</t>
+          <t>2241 - IGAM</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -5678,7 +5678,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>121</v>
+        <v>48</v>
       </c>
     </row>
     <row r="229">
@@ -5687,7 +5687,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>2251 - JUCEMG</t>
+          <t>2241 - IGAM</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -5701,7 +5701,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>103</v>
+        <v>45</v>
       </c>
     </row>
     <row r="230">
@@ -5720,11 +5720,11 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA</t>
+          <t>DIREÇÃO SUPERIOR</t>
         </is>
       </c>
       <c r="E230" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="231">
@@ -5743,11 +5743,11 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>ADMINISTRATIVA</t>
+          <t>ESPECIALIZADA</t>
         </is>
       </c>
       <c r="E231" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="232">
@@ -5766,11 +5766,11 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>DIREÇÃO SUPERIOR</t>
+          <t>OUTRAS</t>
         </is>
       </c>
       <c r="E232" t="n">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="233">
@@ -5802,7 +5802,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>2261 - FUNED</t>
+          <t>2251 - JUCEMG</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -5816,7 +5816,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>274</v>
+        <v>121</v>
       </c>
     </row>
     <row r="235">
@@ -5825,7 +5825,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>2261 - FUNED</t>
+          <t>2251 - JUCEMG</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -5835,11 +5835,11 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>TÉCNICA</t>
+          <t>ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="E235" t="n">
-        <v>202</v>
+        <v>13</v>
       </c>
     </row>
     <row r="236">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>2261 - FUNED</t>
+          <t>2251 - JUCEMG</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -5858,11 +5858,11 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA</t>
+          <t>TÉCNICA</t>
         </is>
       </c>
       <c r="E236" t="n">
-        <v>284</v>
+        <v>103</v>
       </c>
     </row>
     <row r="237">
@@ -5881,11 +5881,11 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="E237" t="n">
-        <v>26</v>
+        <v>239</v>
       </c>
     </row>
     <row r="238">
@@ -5904,11 +5904,11 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>OUTRAS</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E238" t="n">
-        <v>100</v>
+        <v>26</v>
       </c>
     </row>
     <row r="239">
@@ -5945,16 +5945,16 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Ativo</t>
+          <t>Inativo</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>ADMINISTRATIVA</t>
+          <t>INATIVO CIVIL</t>
         </is>
       </c>
       <c r="E240" t="n">
-        <v>239</v>
+        <v>274</v>
       </c>
     </row>
     <row r="241">
@@ -5963,21 +5963,21 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>2271 - FHEMIG</t>
+          <t>2261 - FUNED</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Inativo</t>
+          <t>Ativo</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>INATIVO CIVIL</t>
+          <t>OUTRAS</t>
         </is>
       </c>
       <c r="E241" t="n">
-        <v>3772</v>
+        <v>100</v>
       </c>
     </row>
     <row r="242">
@@ -5986,7 +5986,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>2271 - FHEMIG</t>
+          <t>2261 - FUNED</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -6000,7 +6000,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>5571</v>
+        <v>202</v>
       </c>
     </row>
     <row r="243">
@@ -6009,7 +6009,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>2271 - FHEMIG</t>
+          <t>2261 - FUNED</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -6023,7 +6023,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>4222</v>
+        <v>284</v>
       </c>
     </row>
     <row r="244">
@@ -6042,11 +6042,11 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="E244" t="n">
-        <v>633</v>
+        <v>4057</v>
       </c>
     </row>
     <row r="245">
@@ -6065,11 +6065,11 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>OUTRAS</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E245" t="n">
-        <v>291</v>
+        <v>633</v>
       </c>
     </row>
     <row r="246">
@@ -6106,16 +6106,16 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Ativo</t>
+          <t>Inativo</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>ADMINISTRATIVA</t>
+          <t>INATIVO CIVIL</t>
         </is>
       </c>
       <c r="E247" t="n">
-        <v>4057</v>
+        <v>3772</v>
       </c>
     </row>
     <row r="248">
@@ -6124,21 +6124,21 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>2281 - UTRAMIG</t>
+          <t>2271 - FHEMIG</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Inativo</t>
+          <t>Ativo</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>INATIVO CIVIL</t>
+          <t>OUTRAS</t>
         </is>
       </c>
       <c r="E248" t="n">
-        <v>22</v>
+        <v>291</v>
       </c>
     </row>
     <row r="249">
@@ -6147,7 +6147,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>2281 - UTRAMIG</t>
+          <t>2271 - FHEMIG</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -6157,11 +6157,11 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>DOCENTE</t>
+          <t>TÉCNICA</t>
         </is>
       </c>
       <c r="E249" t="n">
-        <v>2</v>
+        <v>5571</v>
       </c>
     </row>
     <row r="250">
@@ -6170,7 +6170,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>2281 - UTRAMIG</t>
+          <t>2271 - FHEMIG</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -6180,11 +6180,11 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>ESPECIALIZADA</t>
         </is>
       </c>
       <c r="E250" t="n">
-        <v>12</v>
+        <v>4222</v>
       </c>
     </row>
     <row r="251">
@@ -6239,7 +6239,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>2301 - DER-MG</t>
+          <t>2281 - UTRAMIG</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -6253,7 +6253,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>5409</v>
+        <v>22</v>
       </c>
     </row>
     <row r="254">
@@ -6262,7 +6262,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>2301 - DER-MG</t>
+          <t>2281 - UTRAMIG</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -6272,11 +6272,11 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA</t>
+          <t>DOCENTE</t>
         </is>
       </c>
       <c r="E254" t="n">
-        <v>161</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255">
@@ -6285,7 +6285,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>2301 - DER-MG</t>
+          <t>2281 - UTRAMIG</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -6295,11 +6295,11 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>TÉCNICA</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E255" t="n">
-        <v>208</v>
+        <v>12</v>
       </c>
     </row>
     <row r="256">
@@ -6318,11 +6318,11 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>DIREÇÃO SUPERIOR</t>
+          <t>ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="E256" t="n">
-        <v>2</v>
+        <v>421</v>
       </c>
     </row>
     <row r="257">
@@ -6359,16 +6359,16 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Ativo</t>
+          <t>Inativo</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>ADMINISTRATIVA</t>
+          <t>INATIVO CIVIL</t>
         </is>
       </c>
       <c r="E258" t="n">
-        <v>421</v>
+        <v>5409</v>
       </c>
     </row>
     <row r="259">
@@ -6377,21 +6377,21 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>2311 - UNIMONTES</t>
+          <t>2301 - DER-MG</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Inativo</t>
+          <t>Ativo</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>INATIVO CIVIL</t>
+          <t>ESPECIALIZADA</t>
         </is>
       </c>
       <c r="E259" t="n">
-        <v>455</v>
+        <v>161</v>
       </c>
     </row>
     <row r="260">
@@ -6400,7 +6400,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>2311 - UNIMONTES</t>
+          <t>2301 - DER-MG</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -6410,11 +6410,11 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA</t>
+          <t>TÉCNICA</t>
         </is>
       </c>
       <c r="E260" t="n">
-        <v>379</v>
+        <v>208</v>
       </c>
     </row>
     <row r="261">
@@ -6423,7 +6423,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>2311 - UNIMONTES</t>
+          <t>2301 - DER-MG</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -6433,11 +6433,11 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>TÉCNICA</t>
+          <t>DIREÇÃO SUPERIOR</t>
         </is>
       </c>
       <c r="E261" t="n">
-        <v>1033</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262">
@@ -6456,11 +6456,11 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>DIREÇÃO SUPERIOR</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E262" t="n">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="263">
@@ -6479,11 +6479,11 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>DIREÇÃO SUPERIOR</t>
         </is>
       </c>
       <c r="E263" t="n">
-        <v>63</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264">
@@ -6497,16 +6497,16 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Ativo</t>
+          <t>Inativo</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>DOCENTE</t>
+          <t>INATIVO CIVIL</t>
         </is>
       </c>
       <c r="E264" t="n">
-        <v>1111</v>
+        <v>455</v>
       </c>
     </row>
     <row r="265">
@@ -6515,21 +6515,21 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>2321 - HEMOMINAS</t>
+          <t>2311 - UNIMONTES</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Inativo</t>
+          <t>Ativo</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>INATIVO CIVIL</t>
+          <t>ESPECIALIZADA</t>
         </is>
       </c>
       <c r="E265" t="n">
-        <v>223</v>
+        <v>379</v>
       </c>
     </row>
     <row r="266">
@@ -6538,7 +6538,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>2321 - HEMOMINAS</t>
+          <t>2311 - UNIMONTES</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -6548,11 +6548,11 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA</t>
+          <t>TÉCNICA</t>
         </is>
       </c>
       <c r="E266" t="n">
-        <v>281</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="267">
@@ -6561,7 +6561,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>2321 - HEMOMINAS</t>
+          <t>2311 - UNIMONTES</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -6571,11 +6571,11 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>ADMINISTRATIVA</t>
+          <t>DOCENTE</t>
         </is>
       </c>
       <c r="E267" t="n">
-        <v>65</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="268">
@@ -6594,11 +6594,11 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>TÉCNICA</t>
+          <t>ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="E268" t="n">
-        <v>722</v>
+        <v>65</v>
       </c>
     </row>
     <row r="269">
@@ -6617,11 +6617,11 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>DIREÇÃO SUPERIOR</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E269" t="n">
-        <v>1</v>
+        <v>229</v>
       </c>
     </row>
     <row r="270">
@@ -6640,11 +6640,11 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>DIREÇÃO SUPERIOR</t>
         </is>
       </c>
       <c r="E270" t="n">
-        <v>229</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
@@ -6658,16 +6658,16 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Ativo</t>
+          <t>Inativo</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>OUTRAS</t>
+          <t>INATIVO CIVIL</t>
         </is>
       </c>
       <c r="E271" t="n">
-        <v>307</v>
+        <v>223</v>
       </c>
     </row>
     <row r="272">
@@ -6676,21 +6676,21 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>2331 - IPEMMG</t>
+          <t>2321 - HEMOMINAS</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Inativo</t>
+          <t>Ativo</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>INATIVO CIVIL</t>
+          <t>OUTRAS</t>
         </is>
       </c>
       <c r="E272" t="n">
-        <v>147</v>
+        <v>307</v>
       </c>
     </row>
     <row r="273">
@@ -6699,7 +6699,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>2331 - IPEMMG</t>
+          <t>2321 - HEMOMINAS</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -6713,7 +6713,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>86</v>
+        <v>722</v>
       </c>
     </row>
     <row r="274">
@@ -6722,7 +6722,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>2331 - IPEMMG</t>
+          <t>2321 - HEMOMINAS</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -6732,11 +6732,11 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>ESPECIALIZADA</t>
         </is>
       </c>
       <c r="E274" t="n">
-        <v>22</v>
+        <v>281</v>
       </c>
     </row>
     <row r="275">
@@ -6778,11 +6778,11 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>ADMINISTRATIVA</t>
+          <t>TÉCNICA</t>
         </is>
       </c>
       <c r="E276" t="n">
-        <v>10</v>
+        <v>86</v>
       </c>
     </row>
     <row r="277">
@@ -6791,7 +6791,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>2351 - UEMG</t>
+          <t>2331 - IPEMMG</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -6801,11 +6801,11 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E277" t="n">
-        <v>384</v>
+        <v>22</v>
       </c>
     </row>
     <row r="278">
@@ -6814,7 +6814,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>2351 - UEMG</t>
+          <t>2331 - IPEMMG</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -6824,11 +6824,11 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>DOCENTE</t>
+          <t>ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="E278" t="n">
-        <v>1696</v>
+        <v>10</v>
       </c>
     </row>
     <row r="279">
@@ -6837,21 +6837,21 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>2351 - UEMG</t>
+          <t>2331 - IPEMMG</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Ativo</t>
+          <t>Inativo</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>INATIVO CIVIL</t>
         </is>
       </c>
       <c r="E279" t="n">
-        <v>21</v>
+        <v>147</v>
       </c>
     </row>
     <row r="280">
@@ -6870,11 +6870,11 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>DIREÇÃO SUPERIOR</t>
+          <t>ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="E280" t="n">
-        <v>7</v>
+        <v>183</v>
       </c>
     </row>
     <row r="281">
@@ -6893,11 +6893,11 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>ADMINISTRATIVA</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E281" t="n">
-        <v>183</v>
+        <v>21</v>
       </c>
     </row>
     <row r="282">
@@ -6906,21 +6906,21 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>2361 - IPLEMG</t>
+          <t>2351 - UEMG</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Ativo</t>
+          <t>Inativo</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA</t>
+          <t>INATIVO CIVIL</t>
         </is>
       </c>
       <c r="E282" t="n">
-        <v>1</v>
+        <v>323</v>
       </c>
     </row>
     <row r="283">
@@ -6929,7 +6929,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>2361 - IPLEMG</t>
+          <t>2351 - UEMG</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -6939,11 +6939,11 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>DOCENTE</t>
         </is>
       </c>
       <c r="E283" t="n">
-        <v>1</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="284">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>2361 - IPLEMG</t>
+          <t>2351 - UEMG</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -6962,11 +6962,11 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>DIREÇÃO SUPERIOR</t>
+          <t>ESPECIALIZADA</t>
         </is>
       </c>
       <c r="E284" t="n">
-        <v>4</v>
+        <v>384</v>
       </c>
     </row>
     <row r="285">
@@ -6975,7 +6975,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>2361 - IPLEMG</t>
+          <t>2351 - UEMG</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -6985,11 +6985,11 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>ADMINISTRATIVA</t>
+          <t>DIREÇÃO SUPERIOR</t>
         </is>
       </c>
       <c r="E285" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="286">
@@ -6998,21 +6998,21 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>2371 - IMA</t>
+          <t>2361 - IPLEMG</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Inativo</t>
+          <t>Ativo</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>INATIVO CIVIL</t>
+          <t>ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="E286" t="n">
-        <v>585</v>
+        <v>10</v>
       </c>
     </row>
     <row r="287">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>2371 - IMA</t>
+          <t>2361 - IPLEMG</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -7031,11 +7031,11 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>TÉCNICA</t>
+          <t>ESPECIALIZADA</t>
         </is>
       </c>
       <c r="E287" t="n">
-        <v>909</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
@@ -7044,7 +7044,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>2371 - IMA</t>
+          <t>2361 - IPLEMG</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -7054,11 +7054,11 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>DIREÇÃO SUPERIOR</t>
         </is>
       </c>
       <c r="E288" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
     </row>
     <row r="289">
@@ -7067,7 +7067,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>2371 - IMA</t>
+          <t>2361 - IPLEMG</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -7077,11 +7077,11 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>ADMINISTRATIVA</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E289" t="n">
-        <v>335</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
@@ -7100,11 +7100,11 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>DIREÇÃO SUPERIOR</t>
+          <t>ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="E290" t="n">
-        <v>4</v>
+        <v>335</v>
       </c>
     </row>
     <row r="291">
@@ -7123,11 +7123,11 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E291" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="292">
@@ -7136,7 +7136,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>2421 - IDENE</t>
+          <t>2371 - IMA</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>32</v>
+        <v>585</v>
       </c>
     </row>
     <row r="293">
@@ -7159,7 +7159,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>2421 - IDENE</t>
+          <t>2371 - IMA</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -7169,11 +7169,11 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>ESPECIALIZADA</t>
         </is>
       </c>
       <c r="E293" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="294">
@@ -7182,7 +7182,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>2421 - IDENE</t>
+          <t>2371 - IMA</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -7192,11 +7192,11 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>DIREÇÃO SUPERIOR</t>
+          <t>TÉCNICA</t>
         </is>
       </c>
       <c r="E294" t="n">
-        <v>7</v>
+        <v>909</v>
       </c>
     </row>
     <row r="295">
@@ -7205,7 +7205,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>2421 - IDENE</t>
+          <t>2371 - IMA</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -7215,11 +7215,11 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>ADMINISTRATIVA</t>
+          <t>DIREÇÃO SUPERIOR</t>
         </is>
       </c>
       <c r="E295" t="n">
-        <v>83</v>
+        <v>4</v>
       </c>
     </row>
     <row r="296">
@@ -7228,7 +7228,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>2431 - AGÊNCIA RMBH</t>
+          <t>2421 - IDENE</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -7242,7 +7242,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="297">
@@ -7251,21 +7251,21 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>2431 - AGÊNCIA RMBH</t>
+          <t>2421 - IDENE</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Ativo</t>
+          <t>Inativo</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>INATIVO CIVIL</t>
         </is>
       </c>
       <c r="E297" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="298">
@@ -7274,7 +7274,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>2431 - AGÊNCIA RMBH</t>
+          <t>2421 - IDENE</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -7288,7 +7288,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="299">
@@ -7297,7 +7297,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>2441 - ARSAE -MG</t>
+          <t>2421 - IDENE</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -7311,7 +7311,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>47</v>
+        <v>17</v>
       </c>
     </row>
     <row r="300">
@@ -7320,7 +7320,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>2441 - ARSAE -MG</t>
+          <t>2431 - AGÊNCIA RMBH</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -7330,11 +7330,11 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA</t>
+          <t>ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="E300" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="301">
@@ -7343,7 +7343,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>2461 - ARMVA</t>
+          <t>2431 - AGÊNCIA RMBH</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -7353,11 +7353,11 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>DIREÇÃO SUPERIOR</t>
         </is>
       </c>
       <c r="E301" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
@@ -7366,7 +7366,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>2461 - ARMVA</t>
+          <t>2431 - AGÊNCIA RMBH</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -7376,11 +7376,11 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>DIREÇÃO SUPERIOR</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E302" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="303">
@@ -7389,7 +7389,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>2471 - ARTEMIG</t>
+          <t>2441 - ARSAE -MG</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -7399,11 +7399,11 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E303" t="n">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="304">
@@ -7412,7 +7412,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>2471 - ARTEMIG</t>
+          <t>2441 - ARSAE -MG</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -7422,11 +7422,11 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>ESPECIALIZADA</t>
         </is>
       </c>
       <c r="E304" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="305">
@@ -7435,7 +7435,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>2471 - ARTEMIG</t>
+          <t>2461 - ARMVA</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -7449,7 +7449,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
@@ -7458,7 +7458,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>2471 - ARTEMIG</t>
+          <t>2461 - ARMVA</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -7468,11 +7468,11 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>ADMINISTRATIVA</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E306" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="307">
@@ -7481,7 +7481,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>3041 - EMATER</t>
+          <t>2471 - ARTEMIG</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -7491,11 +7491,11 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA</t>
+          <t>ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="E307" t="n">
-        <v>887</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308">
@@ -7504,21 +7504,21 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>3041 - EMATER</t>
+          <t>2471 - ARTEMIG</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Inativo</t>
+          <t>Ativo</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>INATIVO CIVIL</t>
+          <t>ESPECIALIZADA</t>
         </is>
       </c>
       <c r="E308" t="n">
-        <v>93</v>
+        <v>20</v>
       </c>
     </row>
     <row r="309">
@@ -7527,7 +7527,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>3041 - EMATER</t>
+          <t>2471 - ARTEMIG</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -7537,11 +7537,11 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>DIREÇÃO SUPERIOR</t>
         </is>
       </c>
       <c r="E309" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="310">
@@ -7550,7 +7550,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>3041 - EMATER</t>
+          <t>2471 - ARTEMIG</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -7560,11 +7560,11 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>ADMINISTRATIVA</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E310" t="n">
-        <v>328</v>
+        <v>12</v>
       </c>
     </row>
     <row r="311">
@@ -7606,11 +7606,11 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>DIREÇÃO SUPERIOR</t>
+          <t>ESPECIALIZADA</t>
         </is>
       </c>
       <c r="E312" t="n">
-        <v>5</v>
+        <v>887</v>
       </c>
     </row>
     <row r="313">
@@ -7619,7 +7619,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>3051 - EPAMIG</t>
+          <t>3041 - EMATER</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -7629,11 +7629,11 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>TÉCNICA</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E313" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="314">
@@ -7642,21 +7642,21 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>3051 - EPAMIG</t>
+          <t>3041 - EMATER</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Ativo</t>
+          <t>Inativo</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>OUTRAS</t>
+          <t>INATIVO CIVIL</t>
         </is>
       </c>
       <c r="E314" t="n">
-        <v>189</v>
+        <v>93</v>
       </c>
     </row>
     <row r="315">
@@ -7665,7 +7665,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>3051 - EPAMIG</t>
+          <t>3041 - EMATER</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -7675,11 +7675,11 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>ADMINISTRATIVA</t>
+          <t>DIREÇÃO SUPERIOR</t>
         </is>
       </c>
       <c r="E315" t="n">
-        <v>115</v>
+        <v>5</v>
       </c>
     </row>
     <row r="316">
@@ -7688,7 +7688,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>3051 - EPAMIG</t>
+          <t>3041 - EMATER</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -7698,11 +7698,11 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA</t>
+          <t>ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="E316" t="n">
-        <v>291</v>
+        <v>328</v>
       </c>
     </row>
     <row r="317">
@@ -7711,7 +7711,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>3151 - EMC</t>
+          <t>3051 - EPAMIG</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -7721,11 +7721,11 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>ESPECIALIZADA</t>
         </is>
       </c>
       <c r="E317" t="n">
-        <v>16</v>
+        <v>291</v>
       </c>
     </row>
     <row r="318">
@@ -7734,7 +7734,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>3151 - EMC</t>
+          <t>3051 - EPAMIG</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -7744,11 +7744,11 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>DIREÇÃO SUPERIOR</t>
+          <t>ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="E318" t="n">
-        <v>7</v>
+        <v>115</v>
       </c>
     </row>
     <row r="319">
@@ -7757,7 +7757,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>3151 - EMC</t>
+          <t>3051 - EPAMIG</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -7767,11 +7767,11 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA</t>
+          <t>OUTRAS</t>
         </is>
       </c>
       <c r="E319" t="n">
-        <v>56</v>
+        <v>189</v>
       </c>
     </row>
     <row r="320">
@@ -7780,7 +7780,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>3151 - EMC</t>
+          <t>3051 - EPAMIG</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -7790,11 +7790,11 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>ADMINISTRATIVA</t>
+          <t>TÉCNICA</t>
         </is>
       </c>
       <c r="E320" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="321">
@@ -7813,11 +7813,11 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>TÉCNICA</t>
+          <t>DIREÇÃO SUPERIOR</t>
         </is>
       </c>
       <c r="E321" t="n">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="322">
@@ -7826,7 +7826,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>4031 - FEPJ</t>
+          <t>3151 - EMC</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -7836,11 +7836,11 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>DIREÇÃO SUPERIOR</t>
+          <t>ESPECIALIZADA</t>
         </is>
       </c>
       <c r="E322" t="n">
-        <v>5</v>
+        <v>56</v>
       </c>
     </row>
     <row r="323">
@@ -7849,7 +7849,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>4031 - FEPJ</t>
+          <t>3151 - EMC</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -7859,11 +7859,11 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA</t>
+          <t>ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="E323" t="n">
-        <v>1161</v>
+        <v>30</v>
       </c>
     </row>
     <row r="324">
@@ -7872,21 +7872,21 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>4031 - FEPJ</t>
+          <t>3151 - EMC</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Inativo</t>
+          <t>Ativo</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>INATIVO CIVIL</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E324" t="n">
-        <v>6977</v>
+        <v>16</v>
       </c>
     </row>
     <row r="325">
@@ -7895,7 +7895,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>4031 - FEPJ</t>
+          <t>3151 - EMC</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -7905,11 +7905,11 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>MEMBROS DE PODER</t>
+          <t>TÉCNICA</t>
         </is>
       </c>
       <c r="E325" t="n">
-        <v>1132</v>
+        <v>37</v>
       </c>
     </row>
     <row r="326">
@@ -7928,11 +7928,11 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>ADMINISTRATIVA</t>
+          <t>TÉCNICA</t>
         </is>
       </c>
       <c r="E326" t="n">
-        <v>8557</v>
+        <v>110</v>
       </c>
     </row>
     <row r="327">
@@ -7951,11 +7951,11 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>TÉCNICA</t>
+          <t>MEMBROS DE PODER</t>
         </is>
       </c>
       <c r="E327" t="n">
-        <v>110</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="328">
@@ -7974,11 +7974,11 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>ESPECIALIZADA</t>
         </is>
       </c>
       <c r="E328" t="n">
-        <v>3765</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="329">
@@ -7987,7 +7987,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>4291 - FES</t>
+          <t>4031 - FEPJ</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -7997,11 +7997,11 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA</t>
+          <t>DIREÇÃO SUPERIOR</t>
         </is>
       </c>
       <c r="E329" t="n">
-        <v>1925</v>
+        <v>5</v>
       </c>
     </row>
     <row r="330">
@@ -8010,21 +8010,21 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>4291 - FES</t>
+          <t>4031 - FEPJ</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Inativo</t>
+          <t>Ativo</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>INATIVO CIVIL</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E330" t="n">
-        <v>8614</v>
+        <v>3765</v>
       </c>
     </row>
     <row r="331">
@@ -8033,7 +8033,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>4291 - FES</t>
+          <t>4031 - FEPJ</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -8043,11 +8043,11 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>TÉCNICA</t>
+          <t>ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="E331" t="n">
-        <v>250</v>
+        <v>8557</v>
       </c>
     </row>
     <row r="332">
@@ -8056,21 +8056,21 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>4291 - FES</t>
+          <t>4031 - FEPJ</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Ativo</t>
+          <t>Inativo</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>ADMINISTRATIVA</t>
+          <t>INATIVO CIVIL</t>
         </is>
       </c>
       <c r="E332" t="n">
-        <v>949</v>
+        <v>6977</v>
       </c>
     </row>
     <row r="333">
@@ -8089,11 +8089,11 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>TÉCNICA</t>
         </is>
       </c>
       <c r="E333" t="n">
-        <v>84</v>
+        <v>250</v>
       </c>
     </row>
     <row r="334">
@@ -8135,11 +8135,103 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
+          <t>ESPECIALIZADA</t>
+        </is>
+      </c>
+      <c r="E335" t="n">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>4291 - FES</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>Ativo</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
           <t>DIREÇÃO SUPERIOR</t>
         </is>
       </c>
-      <c r="E335" t="n">
+      <c r="E336" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>4291 - FES</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>Ativo</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
+        </is>
+      </c>
+      <c r="E337" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>4291 - FES</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>Ativo</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>ADMINISTRATIVA</t>
+        </is>
+      </c>
+      <c r="E338" t="n">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>4291 - FES</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>Inativo</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>INATIVO CIVIL</t>
+        </is>
+      </c>
+      <c r="E339" t="n">
+        <v>8614</v>
       </c>
     </row>
   </sheetData>

--- a/data/sisor-dados/base_categoria_pessoal.xlsx
+++ b/data/sisor-dados/base_categoria_pessoal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E339"/>
+  <dimension ref="A1:E332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,11 +476,11 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>TÉCNICA</t>
+          <t>DIREÇÃO SUPERIOR</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>295</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -499,11 +499,11 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DIREÇÃO SUPERIOR</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>32</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4">
@@ -522,11 +522,11 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA</t>
+          <t>TÉCNICA</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>476</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5">
@@ -540,16 +540,16 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Ativo</t>
+          <t>Inativo</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MEMBROS DE PODER</t>
+          <t>INATIVO CIVIL</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>78</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="6">
@@ -591,11 +591,11 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>OUTRAS</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>74</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
@@ -609,16 +609,16 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Inativo</t>
+          <t>Ativo</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>INATIVO CIVIL</t>
+          <t>MEMBROS DE PODER</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1251</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
@@ -637,11 +637,11 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>OUTRAS</t>
+          <t>ESPECIALIZADA</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>26</v>
+        <v>476</v>
       </c>
     </row>
     <row r="10">
@@ -683,11 +683,11 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ADMINISTRATIVA</t>
+          <t>ESPECIALIZADA</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>217</v>
+        <v>667</v>
       </c>
     </row>
     <row r="12">
@@ -752,11 +752,11 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA</t>
+          <t>MEMBROS DE PODER</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>667</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
@@ -775,11 +775,11 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>MEMBROS DE PODER</t>
+          <t>ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>14</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16">
@@ -793,16 +793,16 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Inativo</t>
+          <t>Ativo</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>INATIVO CIVIL</t>
+          <t>DIREÇÃO SUPERIOR</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6977</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -844,11 +844,11 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ADMINISTRATIVA</t>
+          <t>TÉCNICA</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>8557</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19">
@@ -862,16 +862,16 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Ativo</t>
+          <t>Inativo</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA</t>
+          <t>INATIVO CIVIL</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1161</v>
+        <v>6977</v>
       </c>
     </row>
     <row r="20">
@@ -890,11 +890,11 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>DIREÇÃO SUPERIOR</t>
+          <t>ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5</v>
+        <v>8557</v>
       </c>
     </row>
     <row r="21">
@@ -913,11 +913,11 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>TÉCNICA</t>
+          <t>MEMBROS DE PODER</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>110</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="22">
@@ -936,11 +936,11 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>MEMBROS DE PODER</t>
+          <t>ESPECIALIZADA</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1132</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="23">
@@ -959,11 +959,11 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>OUTRAS</t>
+          <t>DIREÇÃO SUPERIOR</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -977,16 +977,16 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Inativo</t>
+          <t>Ativo</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>INATIVO MILITAR</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>10</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25">
@@ -1023,16 +1023,16 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Ativo</t>
+          <t>Inativo</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>INATIVO MILITAR</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>77</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -1051,11 +1051,11 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>DIREÇÃO SUPERIOR</t>
+          <t>OUTRAS</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28">
@@ -1074,11 +1074,11 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA</t>
+          <t>MEMBROS DE PODER</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29">
@@ -1120,11 +1120,11 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>MEMBROS DE PODER</t>
+          <t>ESPECIALIZADA</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
@@ -1138,16 +1138,16 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Inativo</t>
+          <t>Ativo</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>INATIVO CIVIL</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>27</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32">
@@ -1161,16 +1161,16 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Ativo</t>
+          <t>Inativo</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>INATIVO CIVIL</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>60</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33">
@@ -1230,16 +1230,16 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Inativo</t>
+          <t>Ativo</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>INATIVO CIVIL</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>222</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36">
@@ -1253,16 +1253,16 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Ativo</t>
+          <t>Inativo</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>INATIVO CIVIL</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>53</v>
+        <v>222</v>
       </c>
     </row>
     <row r="37">
@@ -1281,11 +1281,11 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA</t>
+          <t>ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>434</v>
+        <v>319</v>
       </c>
     </row>
     <row r="38">
@@ -1304,11 +1304,11 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>ADMINISTRATIVA</t>
+          <t>ESPECIALIZADA</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>319</v>
+        <v>434</v>
       </c>
     </row>
     <row r="39">
@@ -1368,16 +1368,16 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Ativo</t>
+          <t>Inativo</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>TÉCNICA</t>
+          <t>INATIVO CIVIL</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1483</v>
+        <v>483</v>
       </c>
     </row>
     <row r="42">
@@ -1437,16 +1437,16 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Inativo</t>
+          <t>Ativo</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>INATIVO CIVIL</t>
+          <t>TÉCNICA</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>483</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="45">
@@ -1465,11 +1465,11 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>ADMINISTRATIVA</t>
+          <t>DIREÇÃO SUPERIOR</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>41</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -1483,16 +1483,16 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Inativo</t>
+          <t>Ativo</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>INATIVO CIVIL</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47">
@@ -1506,16 +1506,16 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Ativo</t>
+          <t>Inativo</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA</t>
+          <t>INATIVO CIVIL</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
@@ -1534,11 +1534,11 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>ESPECIALIZADA</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49">
@@ -1557,11 +1557,11 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>TÉCNICA</t>
+          <t>ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50">
@@ -1580,11 +1580,11 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>DIREÇÃO SUPERIOR</t>
+          <t>TÉCNICA</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51">
@@ -1603,11 +1603,11 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>ADMINISTRATIVA</t>
+          <t>DIREÇÃO SUPERIOR</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>570</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52">
@@ -1621,16 +1621,16 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Inativo</t>
+          <t>Ativo</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>INATIVO CIVIL</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>4293</v>
+        <v>767</v>
       </c>
     </row>
     <row r="53">
@@ -1644,16 +1644,16 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Ativo</t>
+          <t>Inativo</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>DIREÇÃO SUPERIOR</t>
+          <t>INATIVO CIVIL</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>5</v>
+        <v>4293</v>
       </c>
     </row>
     <row r="54">
@@ -1672,11 +1672,11 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>767</v>
+        <v>570</v>
       </c>
     </row>
     <row r="55">
@@ -1718,11 +1718,11 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>ADMINISTRATIVA</t>
+          <t>DIREÇÃO SUPERIOR</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>133</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
@@ -1736,16 +1736,16 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Ativo</t>
+          <t>Inativo</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>INATIVO CIVIL</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>46</v>
+        <v>409</v>
       </c>
     </row>
     <row r="58">
@@ -1764,11 +1764,11 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>DIREÇÃO SUPERIOR</t>
+          <t>ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>8</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59">
@@ -1782,16 +1782,16 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Inativo</t>
+          <t>Ativo</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>INATIVO CIVIL</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>409</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60">
@@ -1810,11 +1810,11 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>ADMINISTRATIVA</t>
+          <t>DIREÇÃO SUPERIOR</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>45</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -1828,16 +1828,16 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Inativo</t>
+          <t>Ativo</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>INATIVO CIVIL</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>481</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62">
@@ -1851,16 +1851,16 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Ativo</t>
+          <t>Inativo</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>TÉCNICA</t>
+          <t>INATIVO CIVIL</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>41</v>
+        <v>481</v>
       </c>
     </row>
     <row r="63">
@@ -1879,11 +1879,11 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>108</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64">
@@ -1902,11 +1902,11 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>DIREÇÃO SUPERIOR</t>
+          <t>TÉCNICA</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>2</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65">
@@ -1925,11 +1925,11 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>DOCENTE</t>
+          <t>DIREÇÃO SUPERIOR</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>2339</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66">
@@ -1948,11 +1948,11 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>ADMINISTRATIVA</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>1793</v>
+        <v>237</v>
       </c>
     </row>
     <row r="67">
@@ -1971,11 +1971,11 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>OFICIAL</t>
+          <t>NATUREZA ESPECIAL</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>3764</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -1994,11 +1994,11 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>PRAÇA</t>
+          <t>ESPECIALIZADA</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>33828</v>
+        <v>190</v>
       </c>
     </row>
     <row r="69">
@@ -2012,16 +2012,16 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Ativo</t>
+          <t>Inativo</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA</t>
+          <t>INATIVO MILITAR</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>190</v>
+        <v>39337</v>
       </c>
     </row>
     <row r="70">
@@ -2035,16 +2035,16 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Inativo</t>
+          <t>Ativo</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>INATIVO MILITAR</t>
+          <t>ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>39337</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="71">
@@ -2063,11 +2063,11 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>DIREÇÃO SUPERIOR</t>
+          <t>OFICIAL</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>3</v>
+        <v>3764</v>
       </c>
     </row>
     <row r="72">
@@ -2086,11 +2086,11 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>PRAÇA</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>237</v>
+        <v>33828</v>
       </c>
     </row>
     <row r="73">
@@ -2104,16 +2104,16 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Ativo</t>
+          <t>Inativo</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>NATUREZA ESPECIAL</t>
+          <t>INATIVO CIVIL</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>470</v>
       </c>
     </row>
     <row r="74">
@@ -2127,16 +2127,16 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Inativo</t>
+          <t>Ativo</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>INATIVO CIVIL</t>
+          <t>DOCENTE</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>470</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="75">
@@ -2155,11 +2155,11 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>DOCENTE</t>
+          <t>DIREÇÃO SUPERIOR</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>158968</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76">
@@ -2178,11 +2178,11 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>ADMINISTRATIVA</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>37607</v>
+        <v>4144</v>
       </c>
     </row>
     <row r="77">
@@ -2196,16 +2196,16 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Inativo</t>
+          <t>Ativo</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>INATIVO CIVIL</t>
+          <t>TÉCNICA</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>176055</v>
+        <v>23323</v>
       </c>
     </row>
     <row r="78">
@@ -2219,16 +2219,16 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Ativo</t>
+          <t>Inativo</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA</t>
+          <t>INATIVO CIVIL</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>14014</v>
+        <v>176055</v>
       </c>
     </row>
     <row r="79">
@@ -2247,11 +2247,11 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>DOCENTE</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>4144</v>
+        <v>158968</v>
       </c>
     </row>
     <row r="80">
@@ -2270,11 +2270,11 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>TÉCNICA</t>
+          <t>ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>23323</v>
+        <v>37607</v>
       </c>
     </row>
     <row r="81">
@@ -2293,11 +2293,11 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>DIREÇÃO SUPERIOR</t>
+          <t>ESPECIALIZADA</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>6</v>
+        <v>14014</v>
       </c>
     </row>
     <row r="82">
@@ -2316,11 +2316,11 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>ADMINISTRATIVA</t>
+          <t>DIREÇÃO SUPERIOR</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>80</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83">
@@ -2339,11 +2339,11 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>OUTRAS</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>3</v>
+        <v>157</v>
       </c>
     </row>
     <row r="84">
@@ -2357,16 +2357,16 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Ativo</t>
+          <t>Inativo</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>TÉCNICA</t>
+          <t>INATIVO CIVIL</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>15</v>
+        <v>276</v>
       </c>
     </row>
     <row r="85">
@@ -2385,11 +2385,11 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>DIREÇÃO SUPERIOR</t>
+          <t>ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>4</v>
+        <v>80</v>
       </c>
     </row>
     <row r="86">
@@ -2408,11 +2408,11 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>OUTRAS</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>157</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87">
@@ -2426,16 +2426,16 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Inativo</t>
+          <t>Ativo</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>INATIVO CIVIL</t>
+          <t>TÉCNICA</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>276</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88">
@@ -2454,11 +2454,11 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA</t>
+          <t>DIREÇÃO SUPERIOR</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>124</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89">
@@ -2477,11 +2477,11 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>ADMINISTRATIVA</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>89</v>
+        <v>44</v>
       </c>
     </row>
     <row r="90">
@@ -2500,11 +2500,11 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>ESPECIALIZADA</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>44</v>
+        <v>124</v>
       </c>
     </row>
     <row r="91">
@@ -2523,11 +2523,11 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>DIREÇÃO SUPERIOR</t>
+          <t>ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>7</v>
+        <v>89</v>
       </c>
     </row>
     <row r="92">
@@ -2564,16 +2564,16 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Inativo</t>
+          <t>Ativo</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>INATIVO CIVIL</t>
+          <t>ESPECIALIZADA</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>21</v>
+        <v>333</v>
       </c>
     </row>
     <row r="94">
@@ -2592,11 +2592,11 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>DIREÇÃO SUPERIOR</t>
+          <t>TÉCNICA</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>10</v>
+        <v>75</v>
       </c>
     </row>
     <row r="95">
@@ -2615,11 +2615,11 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>333</v>
+        <v>83</v>
       </c>
     </row>
     <row r="96">
@@ -2638,11 +2638,11 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>TÉCNICA</t>
+          <t>DIREÇÃO SUPERIOR</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>75</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97">
@@ -2656,16 +2656,16 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Ativo</t>
+          <t>Inativo</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>INATIVO CIVIL</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>83</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98">
@@ -2684,11 +2684,11 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>OFICIAL</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>724</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99">
@@ -2707,11 +2707,11 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>PRAÇA</t>
+          <t>OFICIAL</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>5145</v>
+        <v>724</v>
       </c>
     </row>
     <row r="100">
@@ -2725,16 +2725,16 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Ativo</t>
+          <t>Inativo</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>INATIVO MILITAR</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>22</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="101">
@@ -2753,11 +2753,11 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>DIREÇÃO SUPERIOR</t>
+          <t>PRAÇA</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>2</v>
+        <v>5145</v>
       </c>
     </row>
     <row r="102">
@@ -2771,16 +2771,16 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Inativo</t>
+          <t>Ativo</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>INATIVO MILITAR</t>
+          <t>DIREÇÃO SUPERIOR</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>3219</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
@@ -2794,16 +2794,16 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Ativo</t>
+          <t>Inativo</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>ADMINISTRATIVA</t>
+          <t>INATIVO CIVIL</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>6</v>
+        <v>397</v>
       </c>
     </row>
     <row r="104">
@@ -2817,16 +2817,16 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Inativo</t>
+          <t>Ativo</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>INATIVO CIVIL</t>
+          <t>DIREÇÃO SUPERIOR</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>397</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105">
@@ -2868,11 +2868,11 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>TÉCNICA</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>114</v>
+        <v>983</v>
       </c>
     </row>
     <row r="107">
@@ -2891,11 +2891,11 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>TÉCNICA</t>
+          <t>ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>983</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108">
@@ -2914,11 +2914,11 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>DIREÇÃO SUPERIOR</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>5</v>
+        <v>114</v>
       </c>
     </row>
     <row r="109">
@@ -2932,16 +2932,16 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Ativo</t>
+          <t>Inativo</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>ADMINISTRATIVA</t>
+          <t>INATIVO CIVIL</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>804</v>
+        <v>830</v>
       </c>
     </row>
     <row r="110">
@@ -2955,16 +2955,16 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Inativo</t>
+          <t>Ativo</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>INATIVO CIVIL</t>
+          <t>ESPECIALIZADA</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>830</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="111">
@@ -3006,11 +3006,11 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>1139</v>
+        <v>285</v>
       </c>
     </row>
     <row r="113">
@@ -3029,11 +3029,11 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>NATUREZA ESPECIAL</t>
+          <t>TÉCNICA</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>3</v>
+        <v>17855</v>
       </c>
     </row>
     <row r="114">
@@ -3052,11 +3052,11 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>TÉCNICA</t>
+          <t>NATUREZA ESPECIAL</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>17855</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115">
@@ -3075,11 +3075,11 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>285</v>
+        <v>804</v>
       </c>
     </row>
     <row r="116">
@@ -3093,16 +3093,16 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Ativo</t>
+          <t>Inativo</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>DOCENTE</t>
+          <t>INATIVO CIVIL</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>2</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="117">
@@ -3121,7 +3121,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>ADMINISTRATIVA</t>
+          <t>TÉCNICA</t>
         </is>
       </c>
       <c r="E117" t="n">
@@ -3139,16 +3139,16 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Inativo</t>
+          <t>Ativo</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>INATIVO CIVIL</t>
+          <t>ESPECIALIZADA</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>1151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="119">
@@ -3167,11 +3167,11 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA</t>
+          <t>DIREÇÃO SUPERIOR</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>147</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120">
@@ -3213,7 +3213,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>TÉCNICA</t>
+          <t>ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="E121" t="n">
@@ -3236,11 +3236,11 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>DIREÇÃO SUPERIOR</t>
+          <t>DOCENTE</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123">
@@ -3259,11 +3259,11 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA</t>
+          <t>TÉCNICA</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>46</v>
+        <v>63</v>
       </c>
     </row>
     <row r="124">
@@ -3277,16 +3277,16 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Inativo</t>
+          <t>Ativo</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>INATIVO CIVIL</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>1073</v>
+        <v>262</v>
       </c>
     </row>
     <row r="125">
@@ -3305,11 +3305,11 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>TÉCNICA</t>
+          <t>DIREÇÃO SUPERIOR</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>63</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126">
@@ -3323,16 +3323,16 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Ativo</t>
+          <t>Inativo</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>INATIVO CIVIL</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>262</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="127">
@@ -3351,11 +3351,11 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>DIREÇÃO SUPERIOR</t>
+          <t>ESPECIALIZADA</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="128">
@@ -3374,11 +3374,11 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>ADMINISTRATIVA</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>624</v>
+        <v>751</v>
       </c>
     </row>
     <row r="129">
@@ -3397,11 +3397,11 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>751</v>
+        <v>624</v>
       </c>
     </row>
     <row r="130">
@@ -3438,16 +3438,16 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Ativo</t>
+          <t>Inativo</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>ADMINISTRATIVA</t>
+          <t>INATIVO CIVIL</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>1067</v>
+        <v>7354</v>
       </c>
     </row>
     <row r="132">
@@ -3461,16 +3461,16 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Inativo</t>
+          <t>Ativo</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>INATIVO CIVIL</t>
+          <t>OUTRAS</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>7354</v>
+        <v>10080</v>
       </c>
     </row>
     <row r="133">
@@ -3489,11 +3489,11 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>OUTRAS</t>
+          <t>ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>10080</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="134">
@@ -3507,16 +3507,16 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Inativo</t>
+          <t>Ativo</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>INATIVO CIVIL</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="135">
@@ -3535,11 +3535,11 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>DIREÇÃO SUPERIOR</t>
+          <t>TÉCNICA</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="136">
@@ -3553,16 +3553,16 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Ativo</t>
+          <t>Inativo</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA</t>
+          <t>INATIVO CIVIL</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>135</v>
+        <v>34</v>
       </c>
     </row>
     <row r="137">
@@ -3581,11 +3581,11 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>TÉCNICA</t>
+          <t>ESPECIALIZADA</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>19</v>
+        <v>135</v>
       </c>
     </row>
     <row r="138">
@@ -3604,11 +3604,11 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>DIREÇÃO SUPERIOR</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>43</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139">
@@ -3645,16 +3645,16 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Inativo</t>
+          <t>Ativo</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>INATIVO CIVIL</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="141">
@@ -3696,11 +3696,11 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>DIREÇÃO SUPERIOR</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -3714,16 +3714,16 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Ativo</t>
+          <t>Inativo</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>DIREÇÃO SUPERIOR</t>
+          <t>INATIVO CIVIL</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="144">
@@ -3742,11 +3742,11 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA</t>
+          <t>ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145">
@@ -3765,11 +3765,11 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>ADMINISTRATIVA</t>
+          <t>DIREÇÃO SUPERIOR</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146">
@@ -3788,11 +3788,11 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>ESPECIALIZADA</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="147">
@@ -3811,11 +3811,11 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>DIREÇÃO SUPERIOR</t>
+          <t>MEMBROS DE PODER</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148">
@@ -3834,11 +3834,11 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>MEMBROS DE PODER</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="149">
@@ -3903,11 +3903,11 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>DIREÇÃO SUPERIOR</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>91</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152">
@@ -3926,11 +3926,11 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>DIREÇÃO SUPERIOR</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>2</v>
+        <v>91</v>
       </c>
     </row>
     <row r="153">
@@ -3949,11 +3949,11 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>DIREÇÃO SUPERIOR</t>
+          <t>ESPECIALIZADA</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154">
@@ -3972,11 +3972,11 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA</t>
+          <t>DIREÇÃO SUPERIOR</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155">
@@ -3995,11 +3995,11 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>TÉCNICA</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="156">
@@ -4018,11 +4018,11 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>TÉCNICA</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
     </row>
     <row r="157">
@@ -7918,7 +7918,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>4031 - FEPJ</t>
+          <t>4291 - FES</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -7932,7 +7932,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="327">
@@ -7941,7 +7941,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>4031 - FEPJ</t>
+          <t>4291 - FES</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -7951,11 +7951,11 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA</t>
+          <t>DIREÇÃO E ASSESSORAMENTO</t>
         </is>
       </c>
       <c r="E327" t="n">
-        <v>1161</v>
+        <v>84</v>
       </c>
     </row>
     <row r="328">
@@ -7964,21 +7964,21 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>4031 - FEPJ</t>
+          <t>4291 - FES</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Inativo</t>
+          <t>Ativo</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>INATIVO CIVIL</t>
+          <t>TÉCNICA</t>
         </is>
       </c>
       <c r="E328" t="n">
-        <v>6977</v>
+        <v>250</v>
       </c>
     </row>
     <row r="329">
@@ -7987,21 +7987,21 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>4031 - FEPJ</t>
+          <t>4291 - FES</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Ativo</t>
+          <t>Inativo</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>MEMBROS DE PODER</t>
+          <t>INATIVO CIVIL</t>
         </is>
       </c>
       <c r="E329" t="n">
-        <v>1132</v>
+        <v>8614</v>
       </c>
     </row>
     <row r="330">
@@ -8010,7 +8010,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>4031 - FEPJ</t>
+          <t>4291 - FES</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -8024,7 +8024,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>8557</v>
+        <v>949</v>
       </c>
     </row>
     <row r="331">
@@ -8033,7 +8033,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>4031 - FEPJ</t>
+          <t>4291 - FES</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -8043,11 +8043,11 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>TÉCNICA</t>
+          <t>OUTRAS</t>
         </is>
       </c>
       <c r="E331" t="n">
-        <v>110</v>
+        <v>449</v>
       </c>
     </row>
     <row r="332">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>4031 - FEPJ</t>
+          <t>4291 - FES</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -8066,172 +8066,11 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
+          <t>ESPECIALIZADA</t>
         </is>
       </c>
       <c r="E332" t="n">
-        <v>3765</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="n">
-        <v>2026</v>
-      </c>
-      <c r="B333" t="inlineStr">
-        <is>
-          <t>4291 - FES</t>
-        </is>
-      </c>
-      <c r="C333" t="inlineStr">
-        <is>
-          <t>Ativo</t>
-        </is>
-      </c>
-      <c r="D333" t="inlineStr">
-        <is>
-          <t>ESPECIALIZADA</t>
-        </is>
-      </c>
-      <c r="E333" t="n">
         <v>1925</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="n">
-        <v>2026</v>
-      </c>
-      <c r="B334" t="inlineStr">
-        <is>
-          <t>4291 - FES</t>
-        </is>
-      </c>
-      <c r="C334" t="inlineStr">
-        <is>
-          <t>Inativo</t>
-        </is>
-      </c>
-      <c r="D334" t="inlineStr">
-        <is>
-          <t>INATIVO CIVIL</t>
-        </is>
-      </c>
-      <c r="E334" t="n">
-        <v>8614</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="n">
-        <v>2026</v>
-      </c>
-      <c r="B335" t="inlineStr">
-        <is>
-          <t>4291 - FES</t>
-        </is>
-      </c>
-      <c r="C335" t="inlineStr">
-        <is>
-          <t>Ativo</t>
-        </is>
-      </c>
-      <c r="D335" t="inlineStr">
-        <is>
-          <t>TÉCNICA</t>
-        </is>
-      </c>
-      <c r="E335" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="n">
-        <v>2026</v>
-      </c>
-      <c r="B336" t="inlineStr">
-        <is>
-          <t>4291 - FES</t>
-        </is>
-      </c>
-      <c r="C336" t="inlineStr">
-        <is>
-          <t>Ativo</t>
-        </is>
-      </c>
-      <c r="D336" t="inlineStr">
-        <is>
-          <t>ADMINISTRATIVA</t>
-        </is>
-      </c>
-      <c r="E336" t="n">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="n">
-        <v>2026</v>
-      </c>
-      <c r="B337" t="inlineStr">
-        <is>
-          <t>4291 - FES</t>
-        </is>
-      </c>
-      <c r="C337" t="inlineStr">
-        <is>
-          <t>Ativo</t>
-        </is>
-      </c>
-      <c r="D337" t="inlineStr">
-        <is>
-          <t>DIREÇÃO E ASSESSORAMENTO</t>
-        </is>
-      </c>
-      <c r="E337" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="n">
-        <v>2026</v>
-      </c>
-      <c r="B338" t="inlineStr">
-        <is>
-          <t>4291 - FES</t>
-        </is>
-      </c>
-      <c r="C338" t="inlineStr">
-        <is>
-          <t>Ativo</t>
-        </is>
-      </c>
-      <c r="D338" t="inlineStr">
-        <is>
-          <t>OUTRAS</t>
-        </is>
-      </c>
-      <c r="E338" t="n">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="n">
-        <v>2026</v>
-      </c>
-      <c r="B339" t="inlineStr">
-        <is>
-          <t>4291 - FES</t>
-        </is>
-      </c>
-      <c r="C339" t="inlineStr">
-        <is>
-          <t>Ativo</t>
-        </is>
-      </c>
-      <c r="D339" t="inlineStr">
-        <is>
-          <t>DIREÇÃO SUPERIOR</t>
-        </is>
-      </c>
-      <c r="E339" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
